--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业从业人员年平均人数.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业从业人员年平均人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,288 +538,134 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>449042</v>
+      </c>
+      <c r="C2" t="n">
+        <v>771131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>295138</v>
+      </c>
+      <c r="E2" t="n">
+        <v>832429</v>
+      </c>
+      <c r="F2" t="n">
+        <v>252814</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1023945</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1731652</v>
+      </c>
+      <c r="I2" t="n">
+        <v>573280</v>
+      </c>
+      <c r="J2" t="n">
+        <v>109621</v>
+      </c>
+      <c r="K2" t="n">
+        <v>141614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2746589</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6015152</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1247942</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1814873</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1101053</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>546542</v>
+      </c>
+      <c r="R2" t="n">
+        <v>336630</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1006802</v>
+      </c>
+      <c r="T2" t="n">
+        <v>35780</v>
+      </c>
       <c r="U2" t="n">
-        <v>3899785</v>
+        <v>10922252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>487421</v>
+      </c>
+      <c r="C3" t="n">
+        <v>789686</v>
+      </c>
+      <c r="D3" t="n">
+        <v>298025</v>
+      </c>
+      <c r="E3" t="n">
+        <v>832357</v>
+      </c>
+      <c r="F3" t="n">
+        <v>241674</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1031360</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1786022</v>
+      </c>
+      <c r="I3" t="n">
+        <v>644624</v>
+      </c>
+      <c r="J3" t="n">
+        <v>124673</v>
+      </c>
+      <c r="K3" t="n">
+        <v>153551</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2584111</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6356687</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1431397</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1945089</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1162090</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>676008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>349995</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1236585</v>
+      </c>
+      <c r="T3" t="n">
+        <v>37272</v>
+      </c>
       <c r="U3" t="n">
-        <v>6633422</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>9447700</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>428684</v>
-      </c>
-      <c r="C5" t="n">
-        <v>679601</v>
-      </c>
-      <c r="D5" t="n">
-        <v>280250</v>
-      </c>
-      <c r="E5" t="n">
-        <v>767596</v>
-      </c>
-      <c r="F5" t="n">
-        <v>233022</v>
-      </c>
-      <c r="G5" t="n">
-        <v>912623</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1604792</v>
-      </c>
-      <c r="I5" t="n">
-        <v>541130</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100141</v>
-      </c>
-      <c r="K5" t="n">
-        <v>129036</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2213312</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5100040</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1035697</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1632703</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1022983</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>513380</v>
-      </c>
-      <c r="R5" t="n">
-        <v>325270</v>
-      </c>
-      <c r="S5" t="n">
-        <v>893945</v>
-      </c>
-      <c r="T5" t="n">
-        <v>35565</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9575428</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>449042</v>
-      </c>
-      <c r="C6" t="n">
-        <v>771131</v>
-      </c>
-      <c r="D6" t="n">
-        <v>295138</v>
-      </c>
-      <c r="E6" t="n">
-        <v>832429</v>
-      </c>
-      <c r="F6" t="n">
-        <v>252814</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1023945</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1731652</v>
-      </c>
-      <c r="I6" t="n">
-        <v>573280</v>
-      </c>
-      <c r="J6" t="n">
-        <v>109621</v>
-      </c>
-      <c r="K6" t="n">
-        <v>141614</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2746589</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6015152</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1247942</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1814873</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1101053</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>546542</v>
-      </c>
-      <c r="R6" t="n">
-        <v>336630</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1006802</v>
-      </c>
-      <c r="T6" t="n">
-        <v>35780</v>
-      </c>
-      <c r="U6" t="n">
-        <v>10922252</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>487421</v>
-      </c>
-      <c r="C7" t="n">
-        <v>789686</v>
-      </c>
-      <c r="D7" t="n">
-        <v>298025</v>
-      </c>
-      <c r="E7" t="n">
-        <v>832357</v>
-      </c>
-      <c r="F7" t="n">
-        <v>241674</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1031360</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1786022</v>
-      </c>
-      <c r="I7" t="n">
-        <v>644624</v>
-      </c>
-      <c r="J7" t="n">
-        <v>124673</v>
-      </c>
-      <c r="K7" t="n">
-        <v>153551</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2584111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6356687</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1431397</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1945089</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1162090</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>676008</v>
-      </c>
-      <c r="R7" t="n">
-        <v>349995</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1236585</v>
-      </c>
-      <c r="T7" t="n">
-        <v>37272</v>
-      </c>
-      <c r="U7" t="n">
         <v>11469153</v>
       </c>
     </row>
